--- a/config_1.19/act_hhl_ty_config.xlsx
+++ b/config_1.19/act_hhl_ty_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>line|</t>
   </si>
@@ -205,10 +205,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"1.活动时间：1月12日8:00-1月18日23:59:59。","2.活动期间，玩所有游戏都有几率获得星星道具，星星可用于兑换奖励，高倍场可获得更多星星哦！","3.活动结束后，所有星星将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《鲸鱼初纪元》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_fish_drop_act_0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -217,43 +213,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所有游戏有几率得礼盒，玩高倍场可得更多礼盒！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值商城中每日首次购买金币，必得宝箱礼盒！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值商城中每日首次购买金币，必得宝箱礼盒！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙鱼油4L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙鱼大米</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>椰子汁6瓶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1.活动时间：1月12日8:00-1月18日23:59:59。","2.活动期间，玩所有游戏都有几率获得星星道具，星星可用于兑换奖励，高倍场可获得更多星星哦！","3.活动结束后，所有星星将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《彩云新世界》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>初级核弹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>所有游戏有几率得灵珠，玩高倍场可得更多灵珠！</t>
+  </si>
+  <si>
+    <t>充值商城中每日首次购买金币，必得宝箱灵珠！</t>
+  </si>
+  <si>
+    <t>坚果大礼包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档电热水袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生酥1斤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档电热水袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生酥1斤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1.活动时间：1月19日8:00-1月25日23:59:59。","2.活动期间，玩所有游戏都有几率获得灵珠道具，灵珠可用于兑换奖励，高倍场可获得更多灵珠哦！","3.活动结束后，所有灵珠将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《彩云新世界》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
+  </si>
+  <si>
+    <t>"1.活动时间：1月19日8:00-1月25日23:59:59。","2.活动期间，玩所有游戏都有几率获得灵珠道具，灵珠可用于兑换奖励，高倍场可获得更多灵珠哦！","3.活动结束后，所有灵珠将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《鲸鱼初纪元》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,12 +276,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -289,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +299,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,12 +330,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,9 +343,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,14 +352,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -668,137 +671,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="19.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="25.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="44.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="25.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1610409600</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1610985599</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9">
         <v>1610409600</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J3" s="9">
         <v>1610985599</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1610409600</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1610985599</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -812,182 +815,182 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2">
+        <v>15000</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3">
-        <v>15000</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8000</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3">
-        <v>8000</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-    </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>24000</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>12000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>6000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1004,182 +1007,182 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2">
+        <v>15000</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8000</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="3">
-        <v>15000</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3">
-        <v>8000</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-    </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>24000</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>12000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>6000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1194,7 +1197,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1205,109 +1208,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+      <c r="A2" s="7">
         <v>1000190</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>1000191</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>1000192</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>1000193</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>1000194</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>111</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>1000195</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1490</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>1000196</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>108</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2990</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>1000197</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>110</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>7500</v>
       </c>
     </row>
@@ -1321,117 +1324,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="54.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="54.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="54.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+      <c r="A2" s="7">
         <v>1000190</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>1000191</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>1000192</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>1000193</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>1000194</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>111</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>1000195</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1490</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>1000196</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>108</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2990</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>1000197</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>110</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>7490</v>
       </c>
     </row>
@@ -1448,7 +1451,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1457,10 +1460,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1468,8 +1471,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
+      <c r="B2" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1486,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1492,10 +1495,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1503,8 +1506,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>61</v>
+      <c r="B2" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1514,6 +1517,47 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1524,55 +1568,14 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1584,19 +1587,19 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/config_1.19/act_hhl_ty_config.xlsx
+++ b/config_1.19/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -754,10 +754,10 @@
         <v>15</v>
       </c>
       <c r="I2" s="9">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="J2" s="9">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>55</v>
@@ -792,10 +792,10 @@
         <v>20</v>
       </c>
       <c r="I3" s="9">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="J3" s="9">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>55</v>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1311,7 +1311,7 @@
         <v>110</v>
       </c>
       <c r="C9" s="1">
-        <v>7500</v>
+        <v>7490</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1528,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1542,12 +1549,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1557,17 +1568,6 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1587,19 +1587,19 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_1.19/act_hhl_ty_config.xlsx
+++ b/config_1.19/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -283,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,12 +293,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +324,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,16 +346,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -753,10 +744,10 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>1611014400</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>1611590399</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -791,10 +782,10 @@
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>1611014400</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>1611590399</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -814,7 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -853,7 +844,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -862,7 +853,7 @@
       <c r="D2" s="2">
         <v>15000</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="2">
@@ -873,7 +864,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -882,7 +873,7 @@
       <c r="D3" s="2">
         <v>8000</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="2">
@@ -893,7 +884,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -902,7 +893,7 @@
       <c r="D4" s="2">
         <v>5000</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="2">
@@ -1045,7 +1036,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1054,7 +1045,7 @@
       <c r="D2" s="2">
         <v>15000</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="2">
@@ -1065,7 +1056,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1074,7 +1065,7 @@
       <c r="D3" s="2">
         <v>8000</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="2">
@@ -1085,7 +1076,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1094,7 +1085,7 @@
       <c r="D4" s="2">
         <v>5000</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="2">
@@ -1196,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1227,8 +1218,8 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
-        <v>1000190</v>
+      <c r="A2" s="2">
+        <v>1000217</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1238,8 +1229,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
-        <v>1000191</v>
+      <c r="A3" s="2">
+        <v>1000218</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -1249,8 +1240,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
-        <v>1000192</v>
+      <c r="A4" s="2">
+        <v>1000219</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1260,8 +1251,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>1000193</v>
+      <c r="A5" s="2">
+        <v>1000220</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -1271,8 +1262,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>1000194</v>
+      <c r="A6" s="2">
+        <v>1000221</v>
       </c>
       <c r="B6" s="1">
         <v>111</v>
@@ -1282,8 +1273,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>1000195</v>
+      <c r="A7" s="2">
+        <v>1000222</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -1293,8 +1284,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>1000196</v>
+      <c r="A8" s="2">
+        <v>1000223</v>
       </c>
       <c r="B8" s="1">
         <v>108</v>
@@ -1304,8 +1295,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>1000197</v>
+      <c r="A9" s="2">
+        <v>1000224</v>
       </c>
       <c r="B9" s="1">
         <v>110</v>
@@ -1325,7 +1316,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1351,8 +1342,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
-        <v>1000190</v>
+      <c r="A2" s="2">
+        <v>1000217</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1362,8 +1353,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
-        <v>1000191</v>
+      <c r="A3" s="2">
+        <v>1000218</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -1373,8 +1364,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
-        <v>1000192</v>
+      <c r="A4" s="2">
+        <v>1000219</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1384,8 +1375,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>1000193</v>
+      <c r="A5" s="2">
+        <v>1000220</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -1395,8 +1386,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>1000194</v>
+      <c r="A6" s="2">
+        <v>1000221</v>
       </c>
       <c r="B6" s="1">
         <v>111</v>
@@ -1406,8 +1397,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>1000195</v>
+      <c r="A7" s="2">
+        <v>1000222</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -1417,8 +1408,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>1000196</v>
+      <c r="A8" s="2">
+        <v>1000223</v>
       </c>
       <c r="B8" s="1">
         <v>108</v>
@@ -1428,8 +1419,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>1000197</v>
+      <c r="A9" s="2">
+        <v>1000224</v>
       </c>
       <c r="B9" s="1">
         <v>110</v>
@@ -1471,7 +1462,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1506,7 +1497,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1528,6 +1519,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1538,26 +1549,6 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
@@ -1575,25 +1566,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_1.19/act_hhl_ty_config.xlsx
+++ b/config_1.19/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="10440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>line|</t>
   </si>
@@ -247,6 +247,84 @@
   </si>
   <si>
     <t>"1.活动时间：1月19日8:00-1月25日23:59:59。","2.活动期间，玩所有游戏都有几率获得灵珠道具，灵珠可用于兑换奖励，高倍场可获得更多灵珠哦！","3.活动结束后，所有灵珠将统一清除，请及时进行奖励兑换","4.实物奖励请关注公众号《鲸鱼初纪元》联系在线客服领取","5.实物图片仅供参考，请以实际发出的奖励为准",</t>
+  </si>
+  <si>
+    <r>
+      <t>2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>85</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,86</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,87</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,88</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111,10189</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,89</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108,10044</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110,10045</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>85</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,87</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111,10189</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,89</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108,10044</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -324,7 +402,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,6 +432,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1188,7 +1269,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1221,8 +1302,8 @@
       <c r="A2" s="2">
         <v>1000217</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
+      <c r="B2" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C2" s="1">
         <v>45</v>
@@ -1232,8 +1313,8 @@
       <c r="A3" s="2">
         <v>1000218</v>
       </c>
-      <c r="B3" s="1">
-        <v>3</v>
+      <c r="B3" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C3" s="1">
         <v>90</v>
@@ -1243,8 +1324,8 @@
       <c r="A4" s="2">
         <v>1000219</v>
       </c>
-      <c r="B4" s="1">
-        <v>4</v>
+      <c r="B4" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -1254,8 +1335,8 @@
       <c r="A5" s="2">
         <v>1000220</v>
       </c>
-      <c r="B5" s="1">
-        <v>5</v>
+      <c r="B5" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C5" s="1">
         <v>290</v>
@@ -1265,8 +1346,8 @@
       <c r="A6" s="2">
         <v>1000221</v>
       </c>
-      <c r="B6" s="1">
-        <v>111</v>
+      <c r="B6" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C6" s="1">
         <v>590</v>
@@ -1276,8 +1357,8 @@
       <c r="A7" s="2">
         <v>1000222</v>
       </c>
-      <c r="B7" s="1">
-        <v>6</v>
+      <c r="B7" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="C7" s="1">
         <v>1490</v>
@@ -1287,8 +1368,8 @@
       <c r="A8" s="2">
         <v>1000223</v>
       </c>
-      <c r="B8" s="1">
-        <v>108</v>
+      <c r="B8" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C8" s="1">
         <v>2990</v>
@@ -1298,8 +1379,8 @@
       <c r="A9" s="2">
         <v>1000224</v>
       </c>
-      <c r="B9" s="1">
-        <v>110</v>
+      <c r="B9" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C9" s="1">
         <v>7490</v>
@@ -1315,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1345,8 +1426,8 @@
       <c r="A2" s="2">
         <v>1000217</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
+      <c r="B2" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="C2" s="1">
         <v>45</v>
@@ -1356,8 +1437,8 @@
       <c r="A3" s="2">
         <v>1000218</v>
       </c>
-      <c r="B3" s="1">
-        <v>3</v>
+      <c r="B3" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C3" s="1">
         <v>90</v>
@@ -1367,8 +1448,8 @@
       <c r="A4" s="2">
         <v>1000219</v>
       </c>
-      <c r="B4" s="1">
-        <v>4</v>
+      <c r="B4" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C4" s="1">
         <v>150</v>
@@ -1378,8 +1459,8 @@
       <c r="A5" s="2">
         <v>1000220</v>
       </c>
-      <c r="B5" s="1">
-        <v>5</v>
+      <c r="B5" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C5" s="1">
         <v>290</v>
@@ -1389,8 +1470,8 @@
       <c r="A6" s="2">
         <v>1000221</v>
       </c>
-      <c r="B6" s="1">
-        <v>111</v>
+      <c r="B6" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="C6" s="1">
         <v>590</v>
@@ -1400,8 +1481,8 @@
       <c r="A7" s="2">
         <v>1000222</v>
       </c>
-      <c r="B7" s="1">
-        <v>6</v>
+      <c r="B7" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="C7" s="1">
         <v>1490</v>
@@ -1411,8 +1492,8 @@
       <c r="A8" s="2">
         <v>1000223</v>
       </c>
-      <c r="B8" s="1">
-        <v>108</v>
+      <c r="B8" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="C8" s="1">
         <v>2990</v>
@@ -1422,8 +1503,8 @@
       <c r="A9" s="2">
         <v>1000224</v>
       </c>
-      <c r="B9" s="1">
-        <v>110</v>
+      <c r="B9" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C9" s="1">
         <v>7490</v>
@@ -1508,6 +1589,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1518,27 +1615,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1549,48 +1626,52 @@
 </sheetInterline>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>